--- a/results_analysis/Results of predictions.xlsx
+++ b/results_analysis/Results of predictions.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizzzi111/Documents/Master/SoSe17/SPL/SPL/Paper/results_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SPL\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
     <sheet name="binary" sheetId="2" r:id="rId2"/>
     <sheet name="binary_R" sheetId="5" r:id="rId3"/>
     <sheet name="multiclass" sheetId="3" r:id="rId4"/>
-    <sheet name="regression" sheetId="4" r:id="rId5"/>
+    <sheet name="multiclass_R" sheetId="6" r:id="rId5"/>
+    <sheet name="regression" sheetId="4" r:id="rId6"/>
+    <sheet name="regression_R" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="27">
   <si>
     <t>Input type</t>
   </si>
@@ -104,6 +103,15 @@
   <si>
     <t>pcc</t>
   </si>
+  <si>
+    <t>rmse</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Input_type</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -156,15 +164,22 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -437,9 +452,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -447,19 +462,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -532,7 +547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -567,7 +582,7 @@
         <v>87.512020000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -602,7 +617,7 @@
         <v>86.129810000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -614,24 +629,24 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -704,7 +719,7 @@
         <v>75.013670000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -740,7 +755,7 @@
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -775,24 +790,24 @@
         <v>36.552959999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -862,7 +877,7 @@
         <v>1.2798419999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -897,7 +912,7 @@
         <v>1.765398</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -932,7 +947,7 @@
         <v>2.6364399999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -962,9 +977,9 @@
       <selection activeCell="A11" sqref="A11:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +1006,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,7 +1029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1037,7 +1052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1060,7 +1075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,7 +1098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1106,7 +1121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1129,7 +1144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1143,7 +1158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1157,7 +1172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1171,7 +1186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,7 +1200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1199,7 +1214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,7 +1228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1227,7 +1242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,7 +1256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1255,7 +1270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1269,7 +1284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1283,7 +1298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1297,7 +1312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1311,7 +1326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1325,7 +1340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1339,7 +1354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -1353,7 +1368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1367,7 +1382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,7 +1396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -1395,7 +1410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1409,7 +1424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -1423,7 +1438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -1437,7 +1452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -1451,7 +1466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -1465,7 +1480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,7 +1494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -1493,7 +1508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -1507,7 +1522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
@@ -1521,7 +1536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -1535,7 +1550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,7 +1564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
@@ -1572,13 +1587,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1592,7 +1607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1606,7 +1621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1620,7 +1635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1634,7 +1649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1648,7 +1663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1662,7 +1677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1676,7 +1691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1690,7 +1705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1704,7 +1719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1718,7 +1733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1732,7 +1747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1746,7 +1761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1760,7 +1775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1774,7 +1789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1788,7 +1803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1802,7 +1817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1816,7 +1831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1830,7 +1845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1844,7 +1859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1858,7 +1873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1872,7 +1887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1886,7 +1901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1900,7 +1915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1914,7 +1929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1928,7 +1943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1942,7 +1957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1956,7 +1971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1970,7 +1985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1984,7 +1999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -1998,7 +2013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -2019,13 +2034,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2052,7 +2069,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2075,7 +2092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2098,7 +2115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2121,7 +2138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2144,7 +2161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2167,7 +2184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2187,6 +2204,440 @@
         <v>36.552959999999999</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>78.481009999999998</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>60.506329999999998</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>32.911389999999997</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>72.881360000000001</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>58.7057</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>30.97072</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>73.185900000000004</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>52.441839999999999</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>36.633830000000003</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <v>70.116540000000001</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2">
+        <v>53.341740000000001</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2">
+        <v>35.735289999999999</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2">
+        <v>70.91901</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2">
+        <v>53.429490000000001</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2">
+        <v>36.717950000000002</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2">
+        <v>67.033510000000007</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2">
+        <v>56.216929999999998</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3">
+        <v>38.04524</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3">
+        <v>78.487179999999995</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3">
+        <v>60.569420000000001</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2">
+        <v>37.191839999999999</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="3">
+        <v>75.786569999999998</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="3">
+        <v>59.330199999999998</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="2">
+        <v>36.224870000000003</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2">
+        <v>77.503280000000004</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="2">
+        <v>57.16807</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="2">
+        <v>34.192309999999999</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="2">
+        <v>75.013670000000005</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="2">
+        <v>57.919879999999999</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="2">
+        <v>36.552959999999999</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2197,13 +2648,464 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>78.481009999999998</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>60.506329999999998</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>32.911389999999997</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>72.881360000000001</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>58.7057</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>30.97072</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>73.185900000000004</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>52.441839999999999</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>36.633830000000003</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>70.116540000000001</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>53.341740000000001</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>35.735289999999999</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>70.91901</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>53.429490000000001</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>36.717950000000002</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>67.033510000000007</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>56.216929999999998</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>38.04524</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3">
+        <v>78.487179999999995</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3">
+        <v>60.569420000000001</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2">
+        <v>37.191839999999999</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="3">
+        <v>75.786569999999998</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3">
+        <v>59.330199999999998</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2">
+        <v>36.224870000000003</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2">
+        <v>77.503280000000004</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2">
+        <v>57.16807</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="2">
+        <v>34.192309999999999</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2">
+        <v>75.013670000000005</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2">
+        <v>57.919879999999999</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2">
+        <v>36.552959999999999</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2230,7 +3132,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2253,7 +3155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2276,7 +3178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2299,7 +3201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2322,7 +3224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2345,7 +3247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2365,6 +3267,889 @@
         <v>2.6364399999999999</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.0075810000000001</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.8028010000000001</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4.5756399999999999</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.3206899999999999</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.888657</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3.2281659999999999</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>10.466089999999999</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10.468019999999999</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10.465809999999999</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <v>11.373189999999999</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2">
+        <v>11.37302</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2">
+        <v>11.372909999999999</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.9883649999999999</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.799823</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4.2563469999999999</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1.276845</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.8464309999999999</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2.6941060000000001</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.8209500000000001</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2.4047200000000002</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3.9928249999999998</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.3926940000000001</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1.7376149999999999</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2.8847719999999999</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1.7670509999999999</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2.524092</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="3">
+        <v>3.9586869999999998</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1.2798419999999999</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1.765398</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2.6364399999999999</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.0075810000000001</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.8028010000000001</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.5756399999999999</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.3206899999999999</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.888657</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.2281659999999999</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10.466089999999999</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10.468019999999999</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10.465809999999999</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>11.373189999999999</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11.37302</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>11.372909999999999</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.9883649999999999</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.799823</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4.2563469999999999</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.276845</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.8464309999999999</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2.6941060000000001</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.8209500000000001</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2.4047200000000002</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3.9928249999999998</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.3926940000000001</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.7376149999999999</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2.8847719999999999</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1.7670509999999999</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.524092</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3.9586869999999998</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.2798419999999999</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.765398</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2.6364399999999999</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>17</v>
       </c>
     </row>
